--- a/modelDB/data/lattice_model_template.xlsx
+++ b/modelDB/data/lattice_model_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\NetBeansProjects\code\modelDB\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xal\source_code\code\modelDB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9154,8 +9154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1332" workbookViewId="0">
-      <selection activeCell="A1261" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10249,11 +10249,20 @@
       <c r="F14" s="9" t="s">
         <v>2595</v>
       </c>
+      <c r="G14" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H14" s="9">
         <v>50</v>
       </c>
       <c r="AA14" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>1</v>
       </c>
       <c r="AS14" s="9" t="s">
         <v>2467</v>
@@ -10790,11 +10799,20 @@
       <c r="F28" s="9" t="s">
         <v>2596</v>
       </c>
+      <c r="G28" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H28" s="9">
         <v>100</v>
       </c>
       <c r="AA28" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="9">
+        <v>1</v>
       </c>
       <c r="AS28" s="9" t="s">
         <v>232</v>
@@ -10904,11 +10922,20 @@
       <c r="F31" s="9" t="s">
         <v>2597</v>
       </c>
+      <c r="G31" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H31" s="9">
         <v>50</v>
       </c>
       <c r="AA31" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>1</v>
       </c>
       <c r="AS31" s="9" t="s">
         <v>2467</v>
@@ -11210,8 +11237,17 @@
       <c r="F40" s="9" t="s">
         <v>2598</v>
       </c>
+      <c r="G40" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AA40" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="9">
+        <v>1</v>
       </c>
       <c r="AS40" s="9" t="s">
         <v>2449</v>
@@ -11814,11 +11850,20 @@
       <c r="F57" s="9" t="s">
         <v>2599</v>
       </c>
+      <c r="G57" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H57" s="9">
         <v>50</v>
       </c>
       <c r="AA57" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="9">
+        <v>1</v>
       </c>
       <c r="AS57" s="9" t="s">
         <v>232</v>
@@ -12306,11 +12351,20 @@
       <c r="F72" s="9" t="s">
         <v>2600</v>
       </c>
+      <c r="G72" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H72" s="9">
         <v>140</v>
       </c>
       <c r="AA72" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="9">
+        <v>1</v>
       </c>
       <c r="AS72" s="9" t="s">
         <v>2450</v>
@@ -12361,11 +12415,20 @@
       <c r="F74" s="9" t="s">
         <v>2601</v>
       </c>
+      <c r="G74" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H74" s="9">
         <v>50</v>
       </c>
       <c r="AA74" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="9">
+        <v>1</v>
       </c>
       <c r="AS74" s="9" t="s">
         <v>116</v>
@@ -12468,11 +12531,20 @@
       <c r="F78" s="9" t="s">
         <v>2602</v>
       </c>
+      <c r="G78" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H78" s="9">
         <v>50</v>
       </c>
       <c r="AA78" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="9">
+        <v>1</v>
       </c>
       <c r="AS78" s="9" t="s">
         <v>116</v>
@@ -12985,11 +13057,20 @@
       <c r="F92" s="9" t="s">
         <v>2603</v>
       </c>
+      <c r="G92" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H92" s="9">
         <v>50</v>
       </c>
       <c r="AA92" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD92" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="9">
+        <v>1</v>
       </c>
       <c r="AS92" s="9" t="s">
         <v>232</v>
@@ -13184,11 +13265,20 @@
       <c r="F97" s="9" t="s">
         <v>2604</v>
       </c>
+      <c r="G97" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H97" s="9">
         <v>50</v>
       </c>
       <c r="AA97" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="9">
+        <v>1</v>
       </c>
       <c r="AS97" s="9" t="s">
         <v>232</v>
@@ -13401,11 +13491,20 @@
       <c r="F102" s="9" t="s">
         <v>2605</v>
       </c>
+      <c r="G102" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H102" s="9">
         <v>50</v>
       </c>
       <c r="AA102" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD102" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="9">
+        <v>1</v>
       </c>
       <c r="AS102" s="9" t="s">
         <v>116</v>
@@ -14217,11 +14316,20 @@
       <c r="F123" s="9" t="s">
         <v>2606</v>
       </c>
+      <c r="G123" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H123" s="9">
         <v>50</v>
       </c>
       <c r="AA123" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD123" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI123" s="9">
+        <v>1</v>
       </c>
       <c r="AS123" s="9" t="s">
         <v>232</v>
@@ -14405,11 +14513,20 @@
       <c r="F127" s="9" t="s">
         <v>2607</v>
       </c>
+      <c r="G127" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H127" s="9">
         <v>150</v>
       </c>
       <c r="AA127" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD127" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI127" s="9">
+        <v>1</v>
       </c>
       <c r="AS127" s="9" t="s">
         <v>150</v>
@@ -14434,11 +14551,20 @@
       <c r="F128" s="9" t="s">
         <v>2608</v>
       </c>
+      <c r="G128" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H128" s="9">
         <v>50</v>
       </c>
       <c r="AA128" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD128" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="9">
+        <v>1</v>
       </c>
       <c r="AS128" s="9" t="s">
         <v>116</v>
@@ -14724,11 +14850,20 @@
       <c r="F135" s="9" t="s">
         <v>2609</v>
       </c>
+      <c r="G135" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H135" s="9">
         <v>100</v>
       </c>
       <c r="AA135" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="9">
+        <v>1</v>
       </c>
       <c r="AS135" s="9" t="s">
         <v>232</v>
@@ -14812,11 +14947,20 @@
       <c r="F137" s="9" t="s">
         <v>2610</v>
       </c>
+      <c r="G137" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H137" s="9">
         <v>50</v>
       </c>
       <c r="AA137" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="9">
+        <v>1</v>
       </c>
       <c r="AS137" s="9" t="s">
         <v>232</v>
@@ -14992,11 +15136,20 @@
       <c r="F143" s="9" t="s">
         <v>2611</v>
       </c>
+      <c r="G143" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H143" s="9">
         <v>50</v>
       </c>
       <c r="AA143" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD143" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="9">
+        <v>1</v>
       </c>
       <c r="AS143" s="9" t="s">
         <v>116</v>
@@ -15091,11 +15244,20 @@
       <c r="F146" s="9" t="s">
         <v>2612</v>
       </c>
+      <c r="G146" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H146" s="9">
         <v>140</v>
       </c>
       <c r="AA146" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="9">
+        <v>1</v>
       </c>
       <c r="AS146" s="9" t="s">
         <v>120</v>
@@ -15179,11 +15341,20 @@
       <c r="F148" s="9" t="s">
         <v>2613</v>
       </c>
+      <c r="G148" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H148" s="9">
         <v>50</v>
       </c>
       <c r="AA148" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD148" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="9">
+        <v>1</v>
       </c>
       <c r="AS148" s="9" t="s">
         <v>116</v>
@@ -15319,11 +15490,20 @@
       <c r="F152" s="9" t="s">
         <v>2614</v>
       </c>
+      <c r="G152" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H152" s="9">
         <v>50</v>
       </c>
       <c r="AA152" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD152" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="9">
+        <v>1</v>
       </c>
       <c r="AS152" s="9" t="s">
         <v>116</v>
@@ -15758,11 +15938,20 @@
       <c r="F166" s="9" t="s">
         <v>2615</v>
       </c>
+      <c r="G166" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H166" s="9">
         <v>50</v>
       </c>
       <c r="AA166" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD166" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="9">
+        <v>1</v>
       </c>
       <c r="AS166" s="9" t="s">
         <v>116</v>
@@ -15816,11 +16005,20 @@
       <c r="F168" s="9" t="s">
         <v>2616</v>
       </c>
+      <c r="G168" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H168" s="9">
         <v>50</v>
       </c>
       <c r="AA168" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD168" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="9">
+        <v>1</v>
       </c>
       <c r="AS168" s="9" t="s">
         <v>2467</v>
@@ -16000,11 +16198,20 @@
       <c r="F173" s="9" t="s">
         <v>2617</v>
       </c>
+      <c r="G173" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H173" s="9">
         <v>150</v>
       </c>
       <c r="AA173" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD173" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI173" s="9">
+        <v>1</v>
       </c>
       <c r="AS173" s="9" t="s">
         <v>150</v>
@@ -16117,11 +16324,20 @@
       <c r="F176" s="9" t="s">
         <v>2618</v>
       </c>
+      <c r="G176" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H176" s="9">
         <v>140</v>
       </c>
       <c r="AA176" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD176" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="9">
+        <v>1</v>
       </c>
       <c r="AS176" s="9" t="s">
         <v>120</v>
@@ -16448,11 +16664,20 @@
       <c r="F184" s="9" t="s">
         <v>2619</v>
       </c>
+      <c r="G184" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H184" s="9">
         <v>50</v>
       </c>
       <c r="AA184" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD184" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI184" s="9">
+        <v>1</v>
       </c>
       <c r="AS184" s="9" t="s">
         <v>2449</v>
@@ -17221,11 +17446,20 @@
       <c r="F206" s="9" t="s">
         <v>2620</v>
       </c>
+      <c r="G206" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H206" s="9">
         <v>100</v>
       </c>
       <c r="AA206" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD206" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="9">
+        <v>1</v>
       </c>
       <c r="AS206" s="9" t="s">
         <v>232</v>
@@ -17682,11 +17916,20 @@
       <c r="F219" s="9" t="s">
         <v>2621</v>
       </c>
+      <c r="G219" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H219" s="9">
         <v>150</v>
       </c>
       <c r="AA219" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD219" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="9">
+        <v>1</v>
       </c>
       <c r="AS219" s="9" t="s">
         <v>150</v>
@@ -17839,11 +18082,20 @@
       <c r="F224" s="9" t="s">
         <v>2622</v>
       </c>
+      <c r="G224" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H224" s="9">
         <v>50</v>
       </c>
       <c r="AA224" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD224" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="9">
+        <v>1</v>
       </c>
       <c r="AS224" s="9" t="s">
         <v>116</v>
@@ -18699,11 +18951,20 @@
       <c r="F246" s="9" t="s">
         <v>2623</v>
       </c>
+      <c r="G246" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H246" s="9">
         <v>50</v>
       </c>
       <c r="AA246" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD246" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="9">
+        <v>1</v>
       </c>
       <c r="AS246" s="9" t="s">
         <v>2450</v>
@@ -18897,11 +19158,20 @@
       <c r="F252" s="9" t="s">
         <v>2624</v>
       </c>
+      <c r="G252" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H252" s="9">
         <v>50</v>
       </c>
       <c r="AA252" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI252" s="9">
+        <v>1</v>
       </c>
       <c r="AS252" s="9" t="s">
         <v>232</v>
@@ -19623,11 +19893,20 @@
       <c r="F270" s="9" t="s">
         <v>2625</v>
       </c>
+      <c r="G270" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H270" s="9">
         <v>150</v>
       </c>
       <c r="AA270" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD270" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI270" s="9">
+        <v>1</v>
       </c>
       <c r="AS270" s="9" t="s">
         <v>150</v>
@@ -20387,8 +20666,17 @@
       <c r="F289" s="9" t="s">
         <v>2626</v>
       </c>
+      <c r="G289" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AA289" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD289" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI289" s="9">
+        <v>1</v>
       </c>
       <c r="AS289" s="9" t="s">
         <v>2449</v>
@@ -20943,11 +21231,20 @@
       <c r="F303" s="9" t="s">
         <v>2627</v>
       </c>
+      <c r="G303" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H303" s="9">
         <v>150</v>
       </c>
       <c r="AA303" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD303" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI303" s="9">
+        <v>1</v>
       </c>
       <c r="AS303" s="9" t="s">
         <v>150</v>
@@ -22163,11 +22460,20 @@
       <c r="F334" s="9" t="s">
         <v>2628</v>
       </c>
+      <c r="G334" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H334" s="9">
         <v>150</v>
       </c>
       <c r="AA334" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD334" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI334" s="9">
+        <v>1</v>
       </c>
       <c r="AS334" s="9" t="s">
         <v>150</v>
@@ -22292,11 +22598,20 @@
       <c r="F337" s="9" t="s">
         <v>2629</v>
       </c>
+      <c r="G337" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H337" s="9">
         <v>50</v>
       </c>
       <c r="AA337" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD337" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI337" s="9">
+        <v>1</v>
       </c>
       <c r="AS337" s="9" t="s">
         <v>116</v>
@@ -22450,11 +22765,20 @@
       <c r="F341" s="9" t="s">
         <v>2630</v>
       </c>
+      <c r="G341" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H341" s="9">
         <v>50</v>
       </c>
       <c r="AA341" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD341" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI341" s="9">
+        <v>1</v>
       </c>
       <c r="AS341" s="9" t="s">
         <v>199</v>
@@ -22590,11 +22914,20 @@
       <c r="F345" s="9" t="s">
         <v>2631</v>
       </c>
+      <c r="G345" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H345" s="9">
         <v>50</v>
       </c>
       <c r="AA345" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD345" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI345" s="9">
+        <v>1</v>
       </c>
       <c r="AS345" s="9" t="s">
         <v>116</v>
@@ -22925,11 +23258,20 @@
       <c r="F352" s="9" t="s">
         <v>2632</v>
       </c>
+      <c r="G352" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H352" s="9">
         <v>150</v>
       </c>
       <c r="AA352" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD352" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI352" s="9">
+        <v>1</v>
       </c>
       <c r="AS352" s="9" t="s">
         <v>150</v>
@@ -22983,11 +23325,20 @@
       <c r="F354" s="9" t="s">
         <v>2633</v>
       </c>
+      <c r="G354" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H354" s="9">
         <v>50</v>
       </c>
       <c r="AA354" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD354" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI354" s="9">
+        <v>1</v>
       </c>
       <c r="AS354" s="9" t="s">
         <v>2450</v>
@@ -23526,11 +23877,20 @@
       <c r="F366" s="9" t="s">
         <v>2634</v>
       </c>
+      <c r="G366" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H366" s="9">
         <v>150</v>
       </c>
       <c r="AA366" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD366" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI366" s="9">
+        <v>1</v>
       </c>
       <c r="AS366" s="9" t="s">
         <v>150</v>
@@ -23581,11 +23941,20 @@
       <c r="F368" s="9" t="s">
         <v>2635</v>
       </c>
+      <c r="G368" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H368" s="9">
         <v>50</v>
       </c>
       <c r="AA368" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD368" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI368" s="9">
+        <v>1</v>
       </c>
       <c r="AS368" s="9" t="s">
         <v>2449</v>
@@ -24008,11 +24377,20 @@
       <c r="F379" s="9" t="s">
         <v>2636</v>
       </c>
+      <c r="G379" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H379" s="9">
         <v>100</v>
       </c>
       <c r="AA379" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD379" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI379" s="9">
+        <v>1</v>
       </c>
       <c r="AS379" s="9" t="s">
         <v>232</v>
@@ -24658,11 +25036,20 @@
       <c r="F398" s="9" t="s">
         <v>2637</v>
       </c>
+      <c r="G398" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H398" s="9">
         <v>50</v>
       </c>
       <c r="AA398" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD398" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI398" s="9">
+        <v>1</v>
       </c>
       <c r="AS398" s="9" t="s">
         <v>2449</v>
@@ -24992,11 +25379,20 @@
       <c r="F406" s="9" t="s">
         <v>2638</v>
       </c>
+      <c r="G406" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H406" s="9">
         <v>50</v>
       </c>
       <c r="AA406" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD406" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI406" s="9">
+        <v>1</v>
       </c>
       <c r="AS406" s="9" t="s">
         <v>199</v>
@@ -25109,11 +25505,20 @@
       <c r="F409" s="9" t="s">
         <v>2639</v>
       </c>
+      <c r="G409" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H409" s="9">
         <v>50</v>
       </c>
       <c r="AA409" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD409" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI409" s="9">
+        <v>1</v>
       </c>
       <c r="AS409" s="9" t="s">
         <v>116</v>
@@ -25398,11 +25803,20 @@
       <c r="F417" s="9" t="s">
         <v>2640</v>
       </c>
+      <c r="G417" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H417" s="9">
         <v>150</v>
       </c>
       <c r="AA417" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD417" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI417" s="9">
+        <v>1</v>
       </c>
       <c r="AS417" s="9" t="s">
         <v>150</v>
@@ -25511,11 +25925,20 @@
       <c r="F421" s="9" t="s">
         <v>2641</v>
       </c>
+      <c r="G421" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H421" s="9">
         <v>50</v>
       </c>
       <c r="AA421" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD421" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI421" s="9">
+        <v>1</v>
       </c>
       <c r="AS421" s="9" t="s">
         <v>2449</v>
@@ -26612,11 +27035,20 @@
       <c r="F448" s="9" t="s">
         <v>2642</v>
       </c>
+      <c r="G448" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H448" s="9">
         <v>150</v>
       </c>
       <c r="AA448" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD448" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI448" s="9">
+        <v>1</v>
       </c>
       <c r="AS448" s="9" t="s">
         <v>150</v>
@@ -26909,11 +27341,20 @@
       <c r="F457" s="9" t="s">
         <v>2643</v>
       </c>
+      <c r="G457" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H457" s="9">
         <v>50</v>
       </c>
       <c r="AA457" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD457" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI457" s="9">
+        <v>1</v>
       </c>
       <c r="AS457" s="9" t="s">
         <v>2450</v>
@@ -27115,11 +27556,20 @@
       <c r="F461" s="9" t="s">
         <v>2644</v>
       </c>
+      <c r="G461" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H461" s="9">
         <v>100</v>
       </c>
       <c r="AA461" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD461" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI461" s="9">
+        <v>1</v>
       </c>
       <c r="AS461" s="9" t="s">
         <v>232</v>
@@ -27281,11 +27731,20 @@
       <c r="F466" s="9" t="s">
         <v>2645</v>
       </c>
+      <c r="G466" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H466" s="9">
         <v>150</v>
       </c>
       <c r="AA466" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD466" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI466" s="9">
+        <v>1</v>
       </c>
       <c r="AS466" s="9" t="s">
         <v>150</v>
@@ -27693,11 +28152,20 @@
       <c r="F477" s="9" t="s">
         <v>2646</v>
       </c>
+      <c r="G477" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H477" s="9">
         <v>150</v>
       </c>
       <c r="AA477" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD477" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI477" s="9">
+        <v>1</v>
       </c>
       <c r="AS477" s="9" t="s">
         <v>150</v>
@@ -28080,11 +28548,20 @@
       <c r="F489" s="9" t="s">
         <v>2647</v>
       </c>
+      <c r="G489" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H489" s="9">
         <v>50</v>
       </c>
       <c r="AA489" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD489" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI489" s="9">
+        <v>1</v>
       </c>
       <c r="AS489" s="9" t="s">
         <v>2467</v>
@@ -28366,11 +28843,20 @@
       <c r="F497" s="9" t="s">
         <v>2648</v>
       </c>
+      <c r="G497" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H497" s="9">
         <v>150</v>
       </c>
       <c r="AA497" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD497" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI497" s="9">
+        <v>1</v>
       </c>
       <c r="AS497" s="9" t="s">
         <v>150</v>
@@ -28851,11 +29337,20 @@
       <c r="F510" s="9" t="s">
         <v>2649</v>
       </c>
+      <c r="G510" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H510" s="9">
         <v>50</v>
       </c>
       <c r="AA510" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD510" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI510" s="9">
+        <v>1</v>
       </c>
       <c r="AS510" s="9" t="s">
         <v>116</v>
@@ -28906,11 +29401,20 @@
       <c r="F512" s="9" t="s">
         <v>2650</v>
       </c>
+      <c r="G512" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H512" s="9">
         <v>50</v>
       </c>
       <c r="AA512" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD512" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI512" s="9">
+        <v>1</v>
       </c>
       <c r="AS512" s="9" t="s">
         <v>116</v>
@@ -28994,11 +29498,20 @@
       <c r="F514" s="9" t="s">
         <v>2651</v>
       </c>
+      <c r="G514" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H514" s="9">
         <v>50</v>
       </c>
       <c r="AA514" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD514" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI514" s="9">
+        <v>1</v>
       </c>
       <c r="AS514" s="9" t="s">
         <v>2450</v>
@@ -29229,11 +29742,20 @@
       <c r="F519" s="9" t="s">
         <v>2652</v>
       </c>
+      <c r="G519" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H519" s="9">
         <v>150</v>
       </c>
       <c r="AA519" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD519" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI519" s="9">
+        <v>1</v>
       </c>
       <c r="AS519" s="9" t="s">
         <v>150</v>
@@ -29420,11 +29942,20 @@
       <c r="F526" s="9" t="s">
         <v>2653</v>
       </c>
+      <c r="G526" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H526" s="9">
         <v>50</v>
       </c>
       <c r="AA526" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD526" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI526" s="9">
+        <v>1</v>
       </c>
       <c r="AS526" s="9" t="s">
         <v>116</v>
@@ -29887,11 +30418,20 @@
       <c r="F539" s="9" t="s">
         <v>2654</v>
       </c>
+      <c r="G539" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H539" s="9">
         <v>150</v>
       </c>
       <c r="AA539" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD539" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI539" s="9">
+        <v>1</v>
       </c>
       <c r="AS539" s="9" t="s">
         <v>150</v>
@@ -30048,11 +30588,20 @@
       <c r="F543" s="9" t="s">
         <v>2655</v>
       </c>
+      <c r="G543" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H543" s="9">
         <v>50</v>
       </c>
       <c r="AA543" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD543" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI543" s="9">
+        <v>1</v>
       </c>
       <c r="AS543" s="9" t="s">
         <v>116</v>
@@ -30136,11 +30685,20 @@
       <c r="F545" s="9" t="s">
         <v>2656</v>
       </c>
+      <c r="G545" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H545" s="9">
         <v>50</v>
       </c>
       <c r="AA545" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD545" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI545" s="9">
+        <v>1</v>
       </c>
       <c r="AS545" s="9" t="s">
         <v>2467</v>
@@ -30217,11 +30775,20 @@
       <c r="F548" s="9" t="s">
         <v>2657</v>
       </c>
+      <c r="G548" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H548" s="9">
         <v>50</v>
       </c>
       <c r="AA548" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD548" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI548" s="9">
+        <v>1</v>
       </c>
       <c r="AS548" s="9" t="s">
         <v>2448</v>
@@ -31182,11 +31749,20 @@
       <c r="F573" s="9" t="s">
         <v>2658</v>
       </c>
+      <c r="G573" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H573" s="9">
         <v>50</v>
       </c>
       <c r="AA573" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD573" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI573" s="9">
+        <v>1</v>
       </c>
       <c r="AS573" s="9" t="s">
         <v>116</v>
@@ -31443,11 +32019,20 @@
       <c r="F579" s="9" t="s">
         <v>2659</v>
       </c>
+      <c r="G579" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H579" s="9">
         <v>50</v>
       </c>
       <c r="AA579" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD579" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI579" s="9">
+        <v>1</v>
       </c>
       <c r="AS579" s="9" t="s">
         <v>116</v>
@@ -31557,8 +32142,17 @@
       <c r="F582" s="9" t="s">
         <v>2660</v>
       </c>
+      <c r="G582" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="AA582" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD582" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI582" s="9">
+        <v>1</v>
       </c>
       <c r="AS582" s="9" t="s">
         <v>150</v>
@@ -32206,11 +32800,20 @@
       <c r="F599" s="9" t="s">
         <v>2661</v>
       </c>
+      <c r="G599" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H599" s="9">
         <v>50</v>
       </c>
       <c r="AA599" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD599" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI599" s="9">
+        <v>1</v>
       </c>
       <c r="AS599" s="9" t="s">
         <v>116</v>
@@ -32235,11 +32838,20 @@
       <c r="F600" s="9" t="s">
         <v>2662</v>
       </c>
+      <c r="G600" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H600" s="9">
         <v>50</v>
       </c>
       <c r="AA600" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD600" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI600" s="9">
+        <v>1</v>
       </c>
       <c r="AS600" s="9" t="s">
         <v>2450</v>
@@ -32685,11 +33297,20 @@
       <c r="F612" s="9" t="s">
         <v>2663</v>
       </c>
+      <c r="G612" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H612" s="9">
         <v>50</v>
       </c>
       <c r="AA612" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD612" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI612" s="9">
+        <v>1</v>
       </c>
       <c r="AS612" s="9" t="s">
         <v>116</v>
@@ -33685,11 +34306,20 @@
       <c r="F635" s="9" t="s">
         <v>2664</v>
       </c>
+      <c r="G635" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H635" s="9">
         <v>50</v>
       </c>
       <c r="AA635" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD635" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI635" s="9">
+        <v>1</v>
       </c>
       <c r="AS635" s="9" t="s">
         <v>2450</v>
@@ -34171,11 +34801,20 @@
       <c r="F647" s="9" t="s">
         <v>2665</v>
       </c>
+      <c r="G647" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H647" s="9">
         <v>50</v>
       </c>
       <c r="AA647" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD647" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI647" s="9">
+        <v>1</v>
       </c>
       <c r="AS647" s="9" t="s">
         <v>116</v>
@@ -34719,11 +35358,20 @@
       <c r="F660" s="9" t="s">
         <v>2666</v>
       </c>
+      <c r="G660" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H660" s="9">
         <v>50</v>
       </c>
       <c r="AA660" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD660" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI660" s="9">
+        <v>1</v>
       </c>
       <c r="AS660" s="9" t="s">
         <v>116</v>
@@ -34807,11 +35455,20 @@
       <c r="F662" s="9" t="s">
         <v>2667</v>
       </c>
+      <c r="G662" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H662" s="9">
         <v>50</v>
       </c>
       <c r="AA662" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD662" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI662" s="9">
+        <v>1</v>
       </c>
       <c r="AS662" s="9" t="s">
         <v>2448</v>
@@ -35370,11 +36027,20 @@
       <c r="F678" s="9" t="s">
         <v>2668</v>
       </c>
+      <c r="G678" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H678" s="9">
         <v>50</v>
       </c>
       <c r="AA678" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD678" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI678" s="9">
+        <v>1</v>
       </c>
       <c r="AS678" s="9" t="s">
         <v>2449</v>
@@ -35627,11 +36293,20 @@
       <c r="F685" s="9" t="s">
         <v>2669</v>
       </c>
+      <c r="G685" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H685" s="9">
         <v>150</v>
       </c>
       <c r="AA685" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD685" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI685" s="9">
+        <v>1</v>
       </c>
       <c r="AS685" s="9" t="s">
         <v>150</v>
@@ -35910,11 +36585,20 @@
       <c r="F693" s="9" t="s">
         <v>2670</v>
       </c>
+      <c r="G693" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H693" s="9">
         <v>50</v>
       </c>
       <c r="AA693" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD693" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI693" s="9">
+        <v>1</v>
       </c>
       <c r="AS693" s="9" t="s">
         <v>2467</v>
@@ -36776,11 +37460,20 @@
       <c r="F718" s="9" t="s">
         <v>2671</v>
       </c>
+      <c r="G718" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H718" s="9">
         <v>50</v>
       </c>
       <c r="AA718" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD718" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI718" s="9">
+        <v>1</v>
       </c>
       <c r="AS718" s="9" t="s">
         <v>116</v>
@@ -36831,11 +37524,20 @@
       <c r="F720" s="9" t="s">
         <v>2672</v>
       </c>
+      <c r="G720" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H720" s="9">
         <v>50</v>
       </c>
       <c r="AA720" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD720" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI720" s="9">
+        <v>1</v>
       </c>
       <c r="AS720" s="9" t="s">
         <v>2449</v>
@@ -37250,11 +37952,20 @@
       <c r="F733" s="9" t="s">
         <v>2673</v>
       </c>
+      <c r="G733" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H733" s="9">
         <v>150</v>
       </c>
       <c r="AA733" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD733" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI733" s="9">
+        <v>1</v>
       </c>
       <c r="AS733" s="9" t="s">
         <v>150</v>
@@ -38216,11 +38927,20 @@
       <c r="F760" s="9" t="s">
         <v>2674</v>
       </c>
+      <c r="G760" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H760" s="9">
         <v>150</v>
       </c>
       <c r="AA760" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD760" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI760" s="9">
+        <v>1</v>
       </c>
       <c r="AS760" s="9" t="s">
         <v>150</v>
@@ -38950,11 +39670,20 @@
       <c r="F779" s="9" t="s">
         <v>2675</v>
       </c>
+      <c r="G779" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H779" s="9">
         <v>50</v>
       </c>
       <c r="AA779" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD779" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI779" s="9">
+        <v>1</v>
       </c>
       <c r="AS779" s="9" t="s">
         <v>116</v>
@@ -38979,11 +39708,20 @@
       <c r="F780" s="9" t="s">
         <v>2676</v>
       </c>
+      <c r="G780" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H780" s="9">
         <v>50</v>
       </c>
       <c r="AA780" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD780" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI780" s="9">
+        <v>1</v>
       </c>
       <c r="AS780" s="9" t="s">
         <v>2467</v>
@@ -39532,11 +40270,20 @@
       <c r="F794" s="9" t="s">
         <v>2677</v>
       </c>
+      <c r="G794" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H794" s="9">
         <v>50</v>
       </c>
       <c r="AA794" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD794" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI794" s="9">
+        <v>1</v>
       </c>
       <c r="AS794" s="9" t="s">
         <v>2467</v>
@@ -39822,11 +40569,20 @@
       <c r="F801" s="9" t="s">
         <v>2678</v>
       </c>
+      <c r="G801" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H801" s="9">
         <v>50</v>
       </c>
       <c r="AA801" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD801" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI801" s="9">
+        <v>1</v>
       </c>
       <c r="AS801" s="9" t="s">
         <v>116</v>
@@ -39984,11 +40740,20 @@
       <c r="F807" s="9" t="s">
         <v>2679</v>
       </c>
+      <c r="G807" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H807" s="9">
         <v>100</v>
       </c>
       <c r="AA807" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD807" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI807" s="9">
+        <v>1</v>
       </c>
       <c r="AS807" s="9" t="s">
         <v>199</v>
@@ -40788,11 +41553,20 @@
       <c r="F828" s="9" t="s">
         <v>2680</v>
       </c>
+      <c r="G828" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H828" s="9">
         <v>50</v>
       </c>
       <c r="AA828" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD828" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI828" s="9">
+        <v>1</v>
       </c>
       <c r="AS828" s="9" t="s">
         <v>232</v>
@@ -41030,11 +41804,20 @@
       <c r="F835" s="9" t="s">
         <v>2681</v>
       </c>
+      <c r="G835" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H835" s="9">
         <v>50</v>
       </c>
       <c r="AA835" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD835" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI835" s="9">
+        <v>1</v>
       </c>
       <c r="AS835" s="9" t="s">
         <v>2450</v>
@@ -41379,11 +42162,20 @@
       <c r="F843" s="9" t="s">
         <v>2682</v>
       </c>
+      <c r="G843" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H843" s="9">
         <v>50</v>
       </c>
       <c r="AA843" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD843" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI843" s="9">
+        <v>1</v>
       </c>
       <c r="AS843" s="9" t="s">
         <v>2467</v>
@@ -41924,11 +42716,20 @@
       <c r="F859" s="9" t="s">
         <v>2683</v>
       </c>
+      <c r="G859" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H859" s="9">
         <v>50</v>
       </c>
       <c r="AA859" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD859" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI859" s="9">
+        <v>1</v>
       </c>
       <c r="AS859" s="9" t="s">
         <v>2448</v>
@@ -42618,11 +43419,20 @@
       <c r="F879" s="9" t="s">
         <v>2684</v>
       </c>
+      <c r="G879" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H879" s="9">
         <v>50</v>
       </c>
       <c r="AA879" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD879" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI879" s="9">
+        <v>1</v>
       </c>
       <c r="AS879" s="9" t="s">
         <v>2467</v>
@@ -42647,11 +43457,20 @@
       <c r="F880" s="9" t="s">
         <v>2685</v>
       </c>
+      <c r="G880" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H880" s="9">
         <v>100</v>
       </c>
       <c r="AA880" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD880" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI880" s="9">
+        <v>1</v>
       </c>
       <c r="AS880" s="9" t="s">
         <v>199</v>
@@ -43444,11 +44263,20 @@
       <c r="F899" s="9" t="s">
         <v>2686</v>
       </c>
+      <c r="G899" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H899" s="9">
         <v>50</v>
       </c>
       <c r="AA899" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD899" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI899" s="9">
+        <v>1</v>
       </c>
       <c r="AS899" s="9" t="s">
         <v>2450</v>
@@ -43636,11 +44464,20 @@
       <c r="F905" s="9" t="s">
         <v>2687</v>
       </c>
+      <c r="G905" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H905" s="9">
         <v>50</v>
       </c>
       <c r="AA905" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD905" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI905" s="9">
+        <v>1</v>
       </c>
       <c r="AS905" s="9" t="s">
         <v>2467</v>
@@ -43764,11 +44601,20 @@
       <c r="F909" s="9" t="s">
         <v>2688</v>
       </c>
+      <c r="G909" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H909" s="9">
         <v>150</v>
       </c>
       <c r="AA909" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD909" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI909" s="9">
+        <v>1</v>
       </c>
       <c r="AS909" s="9" t="s">
         <v>150</v>
@@ -43875,11 +44721,20 @@
       <c r="F912" s="9" t="s">
         <v>2689</v>
       </c>
+      <c r="G912" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H912" s="9">
         <v>50</v>
       </c>
       <c r="AA912" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD912" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI912" s="9">
+        <v>1</v>
       </c>
       <c r="AS912" s="9" t="s">
         <v>2467</v>
@@ -44338,11 +45193,20 @@
       <c r="F926" s="9" t="s">
         <v>2690</v>
       </c>
+      <c r="G926" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H926" s="9">
         <v>50</v>
       </c>
       <c r="AA926" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD926" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI926" s="9">
+        <v>1</v>
       </c>
       <c r="AS926" s="9" t="s">
         <v>232</v>
@@ -44863,11 +45727,20 @@
       <c r="F941" s="9" t="s">
         <v>2691</v>
       </c>
+      <c r="G941" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H941" s="9">
         <v>150</v>
       </c>
       <c r="AA941" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD941" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI941" s="9">
+        <v>1</v>
       </c>
       <c r="AS941" s="9" t="s">
         <v>150</v>
@@ -45579,11 +46452,20 @@
       <c r="F960" s="9" t="s">
         <v>2692</v>
       </c>
+      <c r="G960" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H960" s="9">
         <v>50</v>
       </c>
       <c r="AA960" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD960" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI960" s="9">
+        <v>1</v>
       </c>
       <c r="AS960" s="9" t="s">
         <v>232</v>
@@ -45608,11 +46490,20 @@
       <c r="F961" s="9" t="s">
         <v>2693</v>
       </c>
+      <c r="G961" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H961" s="9">
         <v>150</v>
       </c>
       <c r="AA961" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD961" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI961" s="9">
+        <v>1</v>
       </c>
       <c r="AS961" s="9" t="s">
         <v>150</v>
@@ -45924,8 +46815,17 @@
       <c r="F969" s="9" t="s">
         <v>2694</v>
       </c>
+      <c r="G969" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="AA969" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD969" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI969" s="9">
+        <v>1</v>
       </c>
       <c r="AS969" s="9" t="s">
         <v>150</v>
@@ -46061,11 +46961,20 @@
       <c r="F973" s="9" t="s">
         <v>2695</v>
       </c>
+      <c r="G973" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H973" s="9">
         <v>150</v>
       </c>
       <c r="AA973" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD973" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI973" s="9">
+        <v>1</v>
       </c>
       <c r="AS973" s="9" t="s">
         <v>150</v>
@@ -46433,11 +47342,20 @@
       <c r="F982" s="9" t="s">
         <v>2696</v>
       </c>
+      <c r="G982" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H982" s="9">
         <v>100</v>
       </c>
       <c r="AA982" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD982" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI982" s="9">
+        <v>1</v>
       </c>
       <c r="AS982" s="9" t="s">
         <v>199</v>
@@ -46532,11 +47450,20 @@
       <c r="F985" s="9" t="s">
         <v>2697</v>
       </c>
+      <c r="G985" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H985" s="9">
         <v>150</v>
       </c>
       <c r="AA985" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD985" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI985" s="9">
+        <v>1</v>
       </c>
       <c r="AS985" s="9" t="s">
         <v>150</v>
@@ -46646,11 +47573,20 @@
       <c r="F988" s="9" t="s">
         <v>2698</v>
       </c>
+      <c r="G988" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H988" s="9">
         <v>150</v>
       </c>
       <c r="AA988" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD988" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI988" s="9">
+        <v>1</v>
       </c>
       <c r="AS988" s="9" t="s">
         <v>150</v>
@@ -46734,11 +47670,20 @@
       <c r="F990" s="9" t="s">
         <v>2699</v>
       </c>
+      <c r="G990" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H990" s="9">
         <v>100</v>
       </c>
       <c r="AA990" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD990" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI990" s="9">
+        <v>1</v>
       </c>
       <c r="AS990" s="9" t="s">
         <v>232</v>
@@ -47640,11 +48585,20 @@
       <c r="F1011" s="9" t="s">
         <v>2700</v>
       </c>
+      <c r="G1011" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1011" s="9">
         <v>50</v>
       </c>
       <c r="AA1011" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1011" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1011" s="9">
+        <v>1</v>
       </c>
       <c r="AS1011" s="9" t="s">
         <v>199</v>
@@ -47816,11 +48770,20 @@
       <c r="F1015" s="9" t="s">
         <v>2701</v>
       </c>
+      <c r="G1015" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1015" s="9">
         <v>50</v>
       </c>
       <c r="AA1015" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1015" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1015" s="9">
+        <v>1</v>
       </c>
       <c r="AS1015" s="9" t="s">
         <v>2449</v>
@@ -47959,11 +48922,20 @@
       <c r="F1019" s="9" t="s">
         <v>2702</v>
       </c>
+      <c r="G1019" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1019" s="9">
         <v>50</v>
       </c>
       <c r="AA1019" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1019" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1019" s="9">
+        <v>1</v>
       </c>
       <c r="AS1019" s="9" t="s">
         <v>2450</v>
@@ -48734,11 +49706,20 @@
       <c r="F1036" s="9" t="s">
         <v>2703</v>
       </c>
+      <c r="G1036" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1036" s="9">
         <v>50</v>
       </c>
       <c r="AA1036" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1036" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1036" s="9">
+        <v>1</v>
       </c>
       <c r="AS1036" s="9" t="s">
         <v>116</v>
@@ -48859,11 +49840,20 @@
       <c r="F1040" s="9" t="s">
         <v>2704</v>
       </c>
+      <c r="G1040" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1040" s="9">
         <v>150</v>
       </c>
       <c r="AA1040" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1040" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1040" s="9">
+        <v>1</v>
       </c>
       <c r="AS1040" s="9" t="s">
         <v>150</v>
@@ -49043,11 +50033,20 @@
       <c r="F1045" s="9" t="s">
         <v>2705</v>
       </c>
+      <c r="G1045" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1045" s="9">
         <v>50</v>
       </c>
       <c r="AA1045" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1045" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1045" s="9">
+        <v>1</v>
       </c>
       <c r="AS1045" s="9" t="s">
         <v>2450</v>
@@ -49186,11 +50185,20 @@
       <c r="F1049" s="9" t="s">
         <v>2706</v>
       </c>
+      <c r="G1049" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1049" s="9">
         <v>50</v>
       </c>
       <c r="AA1049" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1049" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1049" s="9">
+        <v>1</v>
       </c>
       <c r="AS1049" s="9" t="s">
         <v>116</v>
@@ -49517,11 +50525,20 @@
       <c r="F1057" s="9" t="s">
         <v>2707</v>
       </c>
+      <c r="G1057" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1057" s="9">
         <v>150</v>
       </c>
       <c r="AA1057" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1057" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1057" s="9">
+        <v>1</v>
       </c>
       <c r="AS1057" s="9" t="s">
         <v>150</v>
@@ -49766,11 +50783,20 @@
       <c r="F1066" s="9" t="s">
         <v>2708</v>
       </c>
+      <c r="G1066" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1066" s="9">
         <v>50</v>
       </c>
       <c r="AA1066" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1066" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1066" s="9">
+        <v>1</v>
       </c>
       <c r="AS1066" s="9" t="s">
         <v>232</v>
@@ -49876,11 +50902,20 @@
       <c r="F1070" s="9" t="s">
         <v>2709</v>
       </c>
+      <c r="G1070" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1070" s="9">
         <v>150</v>
       </c>
       <c r="AA1070" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1070" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1070" s="9">
+        <v>1</v>
       </c>
       <c r="AS1070" s="9" t="s">
         <v>150</v>
@@ -50503,11 +51538,20 @@
       <c r="F1085" s="9" t="s">
         <v>2710</v>
       </c>
+      <c r="G1085" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1085" s="9">
         <v>100</v>
       </c>
       <c r="AA1085" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1085" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1085" s="9">
+        <v>1</v>
       </c>
       <c r="AS1085" s="9" t="s">
         <v>199</v>
@@ -51442,11 +52486,20 @@
       <c r="F1112" s="9" t="s">
         <v>2711</v>
       </c>
+      <c r="G1112" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1112" s="9">
         <v>150</v>
       </c>
       <c r="AA1112" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1112" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1112" s="9">
+        <v>1</v>
       </c>
       <c r="AS1112" s="9" t="s">
         <v>150</v>
@@ -51497,11 +52550,20 @@
       <c r="F1114" s="9" t="s">
         <v>2712</v>
       </c>
+      <c r="G1114" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1114" s="9">
         <v>50</v>
       </c>
       <c r="AA1114" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1114" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1114" s="9">
+        <v>1</v>
       </c>
       <c r="AS1114" s="9" t="s">
         <v>199</v>
@@ -51709,11 +52771,20 @@
       <c r="F1121" s="9" t="s">
         <v>2713</v>
       </c>
+      <c r="G1121" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1121" s="9">
         <v>50</v>
       </c>
       <c r="AA1121" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1121" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1121" s="9">
+        <v>1</v>
       </c>
       <c r="AS1121" s="9" t="s">
         <v>232</v>
@@ -52066,11 +53137,20 @@
       <c r="F1130" s="9" t="s">
         <v>2714</v>
       </c>
+      <c r="G1130" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1130" s="9">
         <v>50</v>
       </c>
       <c r="AA1130" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1130" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1130" s="9">
+        <v>1</v>
       </c>
       <c r="AS1130" s="9" t="s">
         <v>2448</v>
@@ -52722,11 +53802,20 @@
       <c r="F1146" s="9" t="s">
         <v>2715</v>
       </c>
+      <c r="G1146" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1146" s="9">
         <v>150</v>
       </c>
       <c r="AA1146" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1146" s="9">
+        <v>1</v>
       </c>
       <c r="AS1146" s="9" t="s">
         <v>150</v>
@@ -52836,11 +53925,20 @@
       <c r="F1149" s="9" t="s">
         <v>2716</v>
       </c>
+      <c r="G1149" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1149" s="9">
         <v>50</v>
       </c>
       <c r="AA1149" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1149" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1149" s="9">
+        <v>1</v>
       </c>
       <c r="AS1149" s="9" t="s">
         <v>232</v>
@@ -54147,11 +55245,20 @@
       <c r="F1182" s="9" t="s">
         <v>2717</v>
       </c>
+      <c r="G1182" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1182" s="9">
         <v>50</v>
       </c>
       <c r="AA1182" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1182" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1182" s="9">
+        <v>1</v>
       </c>
       <c r="AS1182" s="9" t="s">
         <v>116</v>
@@ -54887,11 +55994,20 @@
       <c r="F1201" s="9" t="s">
         <v>2718</v>
       </c>
+      <c r="G1201" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1201" s="9">
         <v>50</v>
       </c>
       <c r="AA1201" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1201" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1201" s="9">
+        <v>1</v>
       </c>
       <c r="AS1201" s="9" t="s">
         <v>232</v>
@@ -54916,11 +56032,20 @@
       <c r="F1202" s="9" t="s">
         <v>2719</v>
       </c>
+      <c r="G1202" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1202" s="9">
         <v>150</v>
       </c>
       <c r="AA1202" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1202" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1202" s="9">
+        <v>1</v>
       </c>
       <c r="AS1202" s="9" t="s">
         <v>150</v>
@@ -55336,11 +56461,20 @@
       <c r="F1214" s="9" t="s">
         <v>2720</v>
       </c>
+      <c r="G1214" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1214" s="9">
         <v>50</v>
       </c>
       <c r="AA1214" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1214" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1214" s="9">
+        <v>1</v>
       </c>
       <c r="AS1214" s="9" t="s">
         <v>2450</v>
@@ -55482,11 +56616,20 @@
       <c r="F1218" s="9" t="s">
         <v>2721</v>
       </c>
+      <c r="G1218" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1218" s="9">
         <v>140</v>
       </c>
       <c r="AA1218" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1218" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1218" s="9">
+        <v>1</v>
       </c>
       <c r="AS1218" s="9" t="s">
         <v>2450</v>
@@ -55999,11 +57142,20 @@
       <c r="F1232" s="9" t="s">
         <v>2722</v>
       </c>
+      <c r="G1232" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1232" s="9">
         <v>150</v>
       </c>
       <c r="AA1232" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1232" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1232" s="9">
+        <v>1</v>
       </c>
       <c r="AS1232" s="9" t="s">
         <v>150</v>
@@ -56260,11 +57412,20 @@
       <c r="F1238" s="9" t="s">
         <v>2723</v>
       </c>
+      <c r="G1238" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1238" s="9">
         <v>50</v>
       </c>
       <c r="AA1238" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1238" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1238" s="9">
+        <v>1</v>
       </c>
       <c r="AS1238" s="9" t="s">
         <v>116</v>
@@ -56640,11 +57801,20 @@
       <c r="F1248" s="9" t="s">
         <v>2724</v>
       </c>
+      <c r="G1248" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1248" s="9">
         <v>50</v>
       </c>
       <c r="AA1248" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1248" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1248" s="9">
+        <v>1</v>
       </c>
       <c r="AS1248" s="9" t="s">
         <v>116</v>
@@ -56753,11 +57923,20 @@
       <c r="F1252" s="9" t="s">
         <v>2725</v>
       </c>
+      <c r="G1252" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1252" s="9">
         <v>150</v>
       </c>
       <c r="AA1252" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1252" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1252" s="9">
+        <v>1</v>
       </c>
       <c r="AS1252" s="9" t="s">
         <v>150</v>
@@ -56881,11 +58060,20 @@
       <c r="F1256" s="9" t="s">
         <v>2726</v>
       </c>
+      <c r="G1256" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1256" s="9">
         <v>150</v>
       </c>
       <c r="AA1256" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1256" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1256" s="9">
+        <v>1</v>
       </c>
       <c r="AS1256" s="9" t="s">
         <v>150</v>
@@ -57068,11 +58256,20 @@
       <c r="F1261" s="9" t="s">
         <v>2727</v>
       </c>
+      <c r="G1261" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1261" s="9">
         <v>50</v>
       </c>
       <c r="AA1261" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1261" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1261" s="9">
+        <v>1</v>
       </c>
       <c r="AS1261" s="9" t="s">
         <v>232</v>
@@ -57262,11 +58459,20 @@
       <c r="F1268" s="9" t="s">
         <v>2728</v>
       </c>
+      <c r="G1268" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1268" s="9">
         <v>150</v>
       </c>
       <c r="AA1268" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1268" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1268" s="9">
+        <v>1</v>
       </c>
       <c r="AS1268" s="9" t="s">
         <v>150</v>
@@ -57390,11 +58596,20 @@
       <c r="F1272" s="9" t="s">
         <v>2729</v>
       </c>
+      <c r="G1272" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1272" s="9">
         <v>100</v>
       </c>
       <c r="AA1272" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1272" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1272" s="9">
+        <v>1</v>
       </c>
       <c r="AS1272" s="9" t="s">
         <v>199</v>
@@ -57675,11 +58890,20 @@
       <c r="F1278" s="9" t="s">
         <v>2730</v>
       </c>
+      <c r="G1278" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1278" s="9">
         <v>150</v>
       </c>
       <c r="AA1278" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1278" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1278" s="9">
+        <v>1</v>
       </c>
       <c r="AS1278" s="9" t="s">
         <v>150</v>
@@ -57885,11 +59109,20 @@
       <c r="F1284" s="9" t="s">
         <v>2731</v>
       </c>
+      <c r="G1284" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1284" s="9">
         <v>50</v>
       </c>
       <c r="AA1284" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1284" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1284" s="9">
+        <v>1</v>
       </c>
       <c r="AS1284" s="9" t="s">
         <v>2450</v>
@@ -58290,11 +59523,20 @@
       <c r="F1296" s="9" t="s">
         <v>2732</v>
       </c>
+      <c r="G1296" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1296" s="9">
         <v>50</v>
       </c>
       <c r="AA1296" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1296" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1296" s="9">
+        <v>1</v>
       </c>
       <c r="AS1296" s="9" t="s">
         <v>116</v>
@@ -59207,11 +60449,20 @@
       <c r="F1321" s="9" t="s">
         <v>2733</v>
       </c>
+      <c r="G1321" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1321" s="9">
         <v>50</v>
       </c>
       <c r="AA1321" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1321" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1321" s="9">
+        <v>1</v>
       </c>
       <c r="AS1321" s="9" t="s">
         <v>2449</v>
@@ -60056,11 +61307,20 @@
       <c r="F1342" s="9" t="s">
         <v>2734</v>
       </c>
+      <c r="G1342" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1342" s="9">
         <v>50</v>
       </c>
       <c r="AA1342" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1342" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1342" s="9">
+        <v>1</v>
       </c>
       <c r="AS1342" s="9" t="s">
         <v>116</v>
@@ -60641,11 +61901,20 @@
       <c r="F1357" s="9" t="s">
         <v>2735</v>
       </c>
+      <c r="G1357" s="9">
+        <v>0.1905</v>
+      </c>
       <c r="H1357" s="9">
         <v>150</v>
       </c>
       <c r="AA1357" s="9">
         <v>0.1905</v>
+      </c>
+      <c r="AD1357" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1357" s="9">
+        <v>1</v>
       </c>
       <c r="AS1357" s="9" t="s">
         <v>150</v>
@@ -60714,11 +61983,20 @@
       <c r="F1359" s="9" t="s">
         <v>2736</v>
       </c>
+      <c r="G1359" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H1359" s="9">
         <v>100</v>
       </c>
       <c r="AA1359" s="9">
         <v>0.2</v>
+      </c>
+      <c r="AD1359" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1359" s="9">
+        <v>1</v>
       </c>
       <c r="AS1359" s="9" t="s">
         <v>199</v>
